--- a/REGULAR/ACCOUNTING/DAÑO, ALMA.xlsx
+++ b/REGULAR/ACCOUNTING/DAÑO, ALMA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\ACCOUNTING\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEEA3F4-DCF2-4DA9-90E1-43D598D3829F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F45D8A5-E054-4FA1-924D-55B3F79BB7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -30,20 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="123">
   <si>
     <t>PERIOD</t>
   </si>
@@ -429,6 +421,12 @@
   </si>
   <si>
     <t>10/3-4/2022</t>
+  </si>
+  <si>
+    <t>FL(2-0-0)</t>
+  </si>
+  <si>
+    <t>12/28,29</t>
   </si>
 </sst>
 </file>
@@ -811,6 +809,15 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -846,15 +853,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2843,7 +2841,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K190" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K192" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -3221,12 +3219,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K190"/>
+  <dimension ref="A2:K192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A146" activePane="bottomLeft"/>
-      <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="I155" sqref="I155"/>
+      <pane ySplit="3576" topLeftCell="A146"/>
+      <selection activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3248,62 +3246,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3329,18 +3327,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3387,7 +3385,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>35.822000000000003</v>
+        <v>30.822000000000003</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3423,7 +3421,7 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="48" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="20"/>
@@ -3462,7 +3460,7 @@
       </c>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="61">
+      <c r="K12" s="49">
         <v>42429</v>
       </c>
     </row>
@@ -3506,7 +3504,7 @@
       <c r="H14" s="39"/>
       <c r="I14" s="9"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="61">
+      <c r="K14" s="49">
         <v>42457</v>
       </c>
     </row>
@@ -3530,7 +3528,7 @@
       <c r="H15" s="39"/>
       <c r="I15" s="9"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="61">
+      <c r="K15" s="49">
         <v>42485</v>
       </c>
     </row>
@@ -3552,7 +3550,7 @@
       </c>
       <c r="I16" s="9"/>
       <c r="J16" s="12"/>
-      <c r="K16" s="62" t="s">
+      <c r="K16" s="50" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3574,7 +3572,7 @@
       </c>
       <c r="I17" s="9"/>
       <c r="J17" s="12"/>
-      <c r="K17" s="62">
+      <c r="K17" s="50">
         <v>42487</v>
       </c>
     </row>
@@ -3596,7 +3594,7 @@
       </c>
       <c r="I18" s="9"/>
       <c r="J18" s="12"/>
-      <c r="K18" s="62" t="s">
+      <c r="K18" s="50" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3716,7 +3714,7 @@
       </c>
       <c r="I23" s="9"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="61">
+      <c r="K23" s="49">
         <v>42621</v>
       </c>
     </row>
@@ -3740,7 +3738,7 @@
       <c r="H24" s="39"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="61">
+      <c r="K24" s="49">
         <v>42642</v>
       </c>
     </row>
@@ -3762,7 +3760,7 @@
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="61" t="s">
+      <c r="K25" s="49" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3784,7 +3782,7 @@
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="61" t="s">
+      <c r="K26" s="49" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3878,7 +3876,7 @@
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="61">
+      <c r="K30" s="49">
         <v>42688</v>
       </c>
     </row>
@@ -3923,7 +3921,7 @@
       <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="60" t="s">
+      <c r="A33" s="48" t="s">
         <v>61</v>
       </c>
       <c r="B33" s="20"/>
@@ -3982,7 +3980,7 @@
       <c r="H35" s="39"/>
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="61">
+      <c r="K35" s="49">
         <v>42400</v>
       </c>
     </row>
@@ -4004,7 +4002,7 @@
       <c r="H36" s="39"/>
       <c r="I36" s="9"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="61"/>
+      <c r="K36" s="49"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
@@ -4074,7 +4072,7 @@
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="61">
+      <c r="K39" s="49">
         <v>42824</v>
       </c>
     </row>
@@ -4096,7 +4094,7 @@
       <c r="H40" s="39"/>
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="61">
+      <c r="K40" s="49">
         <v>42825</v>
       </c>
     </row>
@@ -4118,7 +4116,7 @@
       <c r="H41" s="39"/>
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="61"/>
+      <c r="K41" s="49"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
@@ -4142,7 +4140,7 @@
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="61">
+      <c r="K42" s="49">
         <v>42830</v>
       </c>
     </row>
@@ -4164,7 +4162,7 @@
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="61">
+      <c r="K43" s="49">
         <v>42843</v>
       </c>
     </row>
@@ -4186,7 +4184,7 @@
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="61">
+      <c r="K44" s="49">
         <v>42853</v>
       </c>
     </row>
@@ -4208,7 +4206,7 @@
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="61"/>
+      <c r="K45" s="49"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
@@ -4370,7 +4368,7 @@
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
-      <c r="K52" s="61">
+      <c r="K52" s="49">
         <v>42933</v>
       </c>
     </row>
@@ -4619,7 +4617,7 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="60" t="s">
+      <c r="A64" s="48" t="s">
         <v>84</v>
       </c>
       <c r="B64" s="20"/>
@@ -4684,7 +4682,7 @@
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="11"/>
-      <c r="K66" s="61">
+      <c r="K66" s="49">
         <v>43154</v>
       </c>
     </row>
@@ -4708,7 +4706,7 @@
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
       <c r="J67" s="11"/>
-      <c r="K67" s="61">
+      <c r="K67" s="49">
         <v>43185</v>
       </c>
     </row>
@@ -4730,7 +4728,7 @@
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="11"/>
-      <c r="K68" s="61">
+      <c r="K68" s="49">
         <v>43175</v>
       </c>
     </row>
@@ -4756,7 +4754,7 @@
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
       <c r="J69" s="11"/>
-      <c r="K69" s="61">
+      <c r="K69" s="49">
         <v>43203</v>
       </c>
     </row>
@@ -4776,7 +4774,7 @@
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
       <c r="J70" s="11"/>
-      <c r="K70" s="61">
+      <c r="K70" s="49">
         <v>43194</v>
       </c>
     </row>
@@ -4802,7 +4800,7 @@
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="61">
+      <c r="K71" s="49">
         <v>43222</v>
       </c>
     </row>
@@ -4824,7 +4822,7 @@
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="61">
+      <c r="K72" s="49">
         <v>43228</v>
       </c>
     </row>
@@ -4846,7 +4844,7 @@
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="61"/>
+      <c r="K73" s="49"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
@@ -4868,7 +4866,7 @@
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="61">
+      <c r="K74" s="49">
         <v>43255</v>
       </c>
     </row>
@@ -4890,7 +4888,7 @@
       </c>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="61">
+      <c r="K75" s="49">
         <v>43248</v>
       </c>
     </row>
@@ -4912,7 +4910,7 @@
       </c>
       <c r="I76" s="9"/>
       <c r="J76" s="11"/>
-      <c r="K76" s="61"/>
+      <c r="K76" s="49"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
@@ -4932,7 +4930,7 @@
       <c r="H77" s="39"/>
       <c r="I77" s="9"/>
       <c r="J77" s="11"/>
-      <c r="K77" s="61"/>
+      <c r="K77" s="49"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
@@ -5094,7 +5092,7 @@
       </c>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="61">
+      <c r="K84" s="49">
         <v>43403</v>
       </c>
     </row>
@@ -5140,7 +5138,7 @@
       </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="61">
+      <c r="K86" s="49">
         <v>43418</v>
       </c>
     </row>
@@ -5162,7 +5160,7 @@
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="61" t="s">
+      <c r="K87" s="49" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5184,7 +5182,7 @@
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="61"/>
+      <c r="K88" s="49"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
@@ -5208,7 +5206,7 @@
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="61">
+      <c r="K89" s="49">
         <v>43462</v>
       </c>
     </row>
@@ -5230,7 +5228,7 @@
       </c>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="61">
+      <c r="K90" s="49">
         <v>43440</v>
       </c>
     </row>
@@ -5252,10 +5250,10 @@
       <c r="H91" s="39"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="61"/>
+      <c r="K91" s="49"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="60" t="s">
+      <c r="A92" s="48" t="s">
         <v>100</v>
       </c>
       <c r="B92" s="20"/>
@@ -5270,7 +5268,7 @@
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="61"/>
+      <c r="K92" s="49"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
@@ -5334,7 +5332,7 @@
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="61">
+      <c r="K95" s="49">
         <v>43525</v>
       </c>
     </row>
@@ -5354,7 +5352,7 @@
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="61">
+      <c r="K96" s="49">
         <v>43550</v>
       </c>
     </row>
@@ -5374,7 +5372,7 @@
       <c r="H97" s="39"/>
       <c r="I97" s="9"/>
       <c r="J97" s="11"/>
-      <c r="K97" s="61">
+      <c r="K97" s="49">
         <v>43553</v>
       </c>
     </row>
@@ -5420,7 +5418,7 @@
       </c>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="61">
+      <c r="K99" s="49">
         <v>43591</v>
       </c>
     </row>
@@ -5444,7 +5442,7 @@
       <c r="H100" s="39"/>
       <c r="I100" s="9"/>
       <c r="J100" s="11"/>
-      <c r="K100" s="61">
+      <c r="K100" s="49">
         <v>43619</v>
       </c>
     </row>
@@ -5466,7 +5464,7 @@
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
-      <c r="K101" s="61">
+      <c r="K101" s="49">
         <v>43620</v>
       </c>
     </row>
@@ -5492,7 +5490,7 @@
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="61">
+      <c r="K102" s="49">
         <v>43665</v>
       </c>
     </row>
@@ -5606,7 +5604,7 @@
       <c r="H107" s="39"/>
       <c r="I107" s="9"/>
       <c r="J107" s="11"/>
-      <c r="K107" s="61">
+      <c r="K107" s="49">
         <v>43798</v>
       </c>
     </row>
@@ -5631,7 +5629,7 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="60" t="s">
+      <c r="A109" s="48" t="s">
         <v>103</v>
       </c>
       <c r="B109" s="20"/>
@@ -5714,7 +5712,7 @@
       <c r="H112" s="39"/>
       <c r="I112" s="9"/>
       <c r="J112" s="11"/>
-      <c r="K112" s="61">
+      <c r="K112" s="49">
         <v>43889</v>
       </c>
     </row>
@@ -5736,7 +5734,7 @@
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
-      <c r="K113" s="61">
+      <c r="K113" s="49">
         <v>43899</v>
       </c>
     </row>
@@ -5962,7 +5960,7 @@
       <c r="H124" s="39"/>
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
-      <c r="K124" s="61">
+      <c r="K124" s="49">
         <v>44185</v>
       </c>
     </row>
@@ -5984,12 +5982,12 @@
       <c r="H125" s="39"/>
       <c r="I125" s="9"/>
       <c r="J125" s="11"/>
-      <c r="K125" s="61">
+      <c r="K125" s="49">
         <v>44193</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="60" t="s">
+      <c r="A126" s="48" t="s">
         <v>109</v>
       </c>
       <c r="B126" s="20"/>
@@ -6004,7 +6002,7 @@
       <c r="H126" s="39"/>
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
-      <c r="K126" s="61"/>
+      <c r="K126" s="49"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
@@ -6028,7 +6026,7 @@
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="11"/>
-      <c r="K127" s="61">
+      <c r="K127" s="49">
         <v>44209</v>
       </c>
     </row>
@@ -6074,7 +6072,7 @@
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
-      <c r="K129" s="61">
+      <c r="K129" s="49">
         <v>44257</v>
       </c>
     </row>
@@ -6100,7 +6098,7 @@
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="11"/>
-      <c r="K130" s="61">
+      <c r="K130" s="49">
         <v>44268</v>
       </c>
     </row>
@@ -6317,7 +6315,7 @@
       <c r="K140" s="20"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="60" t="s">
+      <c r="A141" s="48" t="s">
         <v>115</v>
       </c>
       <c r="B141" s="20"/>
@@ -6394,7 +6392,7 @@
       <c r="H144" s="39"/>
       <c r="I144" s="9"/>
       <c r="J144" s="11"/>
-      <c r="K144" s="61">
+      <c r="K144" s="49">
         <v>44621</v>
       </c>
     </row>
@@ -6504,7 +6502,7 @@
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="11"/>
-      <c r="K149" s="61">
+      <c r="K149" s="49">
         <v>44784</v>
       </c>
     </row>
@@ -6524,7 +6522,7 @@
       <c r="H150" s="39"/>
       <c r="I150" s="9"/>
       <c r="J150" s="11"/>
-      <c r="K150" s="61" t="s">
+      <c r="K150" s="49" t="s">
         <v>117</v>
       </c>
     </row>
@@ -6555,40 +6553,40 @@
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A152" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C152" s="13">
-        <v>1.25</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C152" s="13"/>
       <c r="D152" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E152" s="9"/>
       <c r="F152" s="20"/>
-      <c r="G152" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G152" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H152" s="39"/>
       <c r="I152" s="9"/>
       <c r="J152" s="11"/>
-      <c r="K152" s="20" t="s">
-        <v>120</v>
+      <c r="K152" s="49">
+        <v>44833</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B153" s="20"/>
+        <v>44835</v>
+      </c>
+      <c r="B153" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C153" s="13">
         <v>1.25</v>
       </c>
-      <c r="D153" s="39"/>
+      <c r="D153" s="39">
+        <v>2</v>
+      </c>
       <c r="E153" s="9"/>
       <c r="F153" s="20"/>
       <c r="G153" s="13">
@@ -6598,17 +6596,23 @@
       <c r="H153" s="39"/>
       <c r="I153" s="9"/>
       <c r="J153" s="11"/>
-      <c r="K153" s="20"/>
+      <c r="K153" s="20" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B154" s="20"/>
+        <v>44866</v>
+      </c>
+      <c r="B154" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C154" s="13">
         <v>1.25</v>
       </c>
-      <c r="D154" s="39"/>
+      <c r="D154" s="39">
+        <v>1</v>
+      </c>
       <c r="E154" s="9"/>
       <c r="F154" s="20"/>
       <c r="G154" s="13">
@@ -6618,48 +6622,62 @@
       <c r="H154" s="39"/>
       <c r="I154" s="9"/>
       <c r="J154" s="11"/>
-      <c r="K154" s="20"/>
+      <c r="K154" s="49">
+        <v>44890</v>
+      </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A155" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="B155" s="20"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="39"/>
+      <c r="A155" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B155" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C155" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D155" s="39">
+        <v>1</v>
+      </c>
       <c r="E155" s="9"/>
       <c r="F155" s="20"/>
-      <c r="G155" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G155" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H155" s="39"/>
       <c r="I155" s="9"/>
       <c r="J155" s="11"/>
-      <c r="K155" s="20"/>
+      <c r="K155" s="49">
+        <v>44904</v>
+      </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A156" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B156" s="20"/>
-      <c r="C156" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D156" s="39"/>
+      <c r="A156" s="40"/>
+      <c r="B156" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C156" s="13"/>
+      <c r="D156" s="39">
+        <v>2</v>
+      </c>
       <c r="E156" s="9"/>
       <c r="F156" s="20"/>
-      <c r="G156" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G156" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H156" s="39"/>
       <c r="I156" s="9"/>
       <c r="J156" s="11"/>
-      <c r="K156" s="20"/>
+      <c r="K156" s="49" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A157" s="40"/>
+      <c r="A157" s="48" t="s">
+        <v>119</v>
+      </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
       <c r="D157" s="39"/>
@@ -6675,15 +6693,19 @@
       <c r="K157" s="20"/>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A158" s="40"/>
+      <c r="A158" s="40">
+        <v>44927</v>
+      </c>
       <c r="B158" s="20"/>
-      <c r="C158" s="13"/>
+      <c r="C158" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D158" s="39"/>
       <c r="E158" s="9"/>
       <c r="F158" s="20"/>
-      <c r="G158" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G158" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H158" s="39"/>
       <c r="I158" s="9"/>
@@ -7187,20 +7209,52 @@
       <c r="K189" s="20"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A190" s="41"/>
-      <c r="B190" s="15"/>
-      <c r="C190" s="42"/>
-      <c r="D190" s="43"/>
+      <c r="A190" s="40"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="39"/>
       <c r="E190" s="9"/>
-      <c r="F190" s="15"/>
-      <c r="G190" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H190" s="43"/>
+      <c r="F190" s="20"/>
+      <c r="G190" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H190" s="39"/>
       <c r="I190" s="9"/>
-      <c r="J190" s="12"/>
-      <c r="K190" s="15"/>
+      <c r="J190" s="11"/>
+      <c r="K190" s="20"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="40"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="13"/>
+      <c r="D191" s="39"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="20"/>
+      <c r="G191" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H191" s="39"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="11"/>
+      <c r="K191" s="20"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="41"/>
+      <c r="B192" s="15"/>
+      <c r="C192" s="42"/>
+      <c r="D192" s="43"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="15"/>
+      <c r="G192" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H192" s="43"/>
+      <c r="I192" s="9"/>
+      <c r="J192" s="12"/>
+      <c r="K192" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -7266,17 +7320,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -7361,12 +7415,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">

--- a/REGULAR/ACCOUNTING/DAÑO, ALMA.xlsx
+++ b/REGULAR/ACCOUNTING/DAÑO, ALMA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="137">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2878,7 +2878,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K208" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K209" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3256,12 +3256,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K208"/>
+  <dimension ref="A2:K209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A163" activePane="bottomLeft"/>
       <selection activeCell="F9" sqref="F9"/>
-      <selection pane="bottomLeft" activeCell="K182" sqref="K182"/>
+      <selection pane="bottomLeft" activeCell="K185" sqref="K185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3426,7 +3426,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>33.846999999999994</v>
+        <v>34.096999999999994</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3436,7 +3436,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>46.5</v>
+        <v>46.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -7307,15 +7307,17 @@
       <c r="B183" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C183" s="13"/>
+      <c r="C183" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D183" s="39">
         <v>2</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="20"/>
-      <c r="G183" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G183" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H183" s="39"/>
       <c r="I183" s="9"/>
@@ -7325,10 +7327,10 @@
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B184" s="20"/>
+      <c r="A184" s="40"/>
+      <c r="B184" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="C184" s="13"/>
       <c r="D184" s="39"/>
       <c r="E184" s="9"/>
@@ -7337,18 +7339,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H184" s="39"/>
+      <c r="H184" s="39">
+        <v>1</v>
+      </c>
       <c r="I184" s="9"/>
       <c r="J184" s="11"/>
-      <c r="K184" s="20"/>
+      <c r="K184" s="49">
+        <v>45198</v>
+      </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B185" s="20"/>
+        <v>45231</v>
+      </c>
+      <c r="B185" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C185" s="13"/>
-      <c r="D185" s="39"/>
+      <c r="D185" s="39">
+        <v>1</v>
+      </c>
       <c r="E185" s="9"/>
       <c r="F185" s="20"/>
       <c r="G185" s="13" t="str">
@@ -7358,11 +7368,13 @@
       <c r="H185" s="39"/>
       <c r="I185" s="9"/>
       <c r="J185" s="11"/>
-      <c r="K185" s="20"/>
+      <c r="K185" s="49">
+        <v>45254</v>
+      </c>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -7380,7 +7392,7 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -7398,7 +7410,7 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -7416,7 +7428,7 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -7434,7 +7446,7 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -7452,7 +7464,7 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -7470,7 +7482,7 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -7488,7 +7500,7 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -7506,7 +7518,7 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -7524,7 +7536,7 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -7542,7 +7554,7 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -7560,7 +7572,7 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -7578,7 +7590,7 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -7596,7 +7608,7 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -7614,7 +7626,7 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -7631,7 +7643,9 @@
       <c r="K200" s="20"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A201" s="40"/>
+      <c r="A201" s="40">
+        <v>45717</v>
+      </c>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
       <c r="D201" s="39"/>
@@ -7743,20 +7757,36 @@
       <c r="K207" s="20"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A208" s="41"/>
-      <c r="B208" s="15"/>
-      <c r="C208" s="42"/>
-      <c r="D208" s="43"/>
+      <c r="A208" s="40"/>
+      <c r="B208" s="20"/>
+      <c r="C208" s="13"/>
+      <c r="D208" s="39"/>
       <c r="E208" s="9"/>
-      <c r="F208" s="15"/>
-      <c r="G208" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H208" s="43"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H208" s="39"/>
       <c r="I208" s="9"/>
-      <c r="J208" s="12"/>
-      <c r="K208" s="15"/>
+      <c r="J208" s="11"/>
+      <c r="K208" s="20"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A209" s="41"/>
+      <c r="B209" s="15"/>
+      <c r="C209" s="42"/>
+      <c r="D209" s="43"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="15"/>
+      <c r="G209" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H209" s="43"/>
+      <c r="I209" s="9"/>
+      <c r="J209" s="12"/>
+      <c r="K209" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
